--- a/coempt_automation/target/test-classes/dataSheets/Book1.xlsx
+++ b/coempt_automation/target/test-classes/dataSheets/Book1.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
